--- a/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Our Worlds at War (WEB-CBRO)-USER.xlsx
+++ b/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Our Worlds at War (WEB-CBRO)-USER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="103">
   <si>
     <t>SeriesName</t>
   </si>
@@ -49,6 +49,9 @@
     <t>CV Issue Number</t>
   </si>
   <si>
+    <t>CV Series Publisher</t>
+  </si>
+  <si>
     <t>CV Cover Image</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Days Between Issues</t>
   </si>
   <si>
-    <t>CV Series Publisher</t>
-  </si>
-  <si>
     <t>Superman</t>
   </si>
   <si>
@@ -79,18 +79,18 @@
     <t>Young Justice: Our Worlds at War</t>
   </si>
   <si>
+    <t>Superboy</t>
+  </si>
+  <si>
     <t>Action Comics</t>
   </si>
   <si>
-    <t>Superboy</t>
+    <t>Wonder Woman</t>
   </si>
   <si>
     <t>Supergirl</t>
   </si>
   <si>
-    <t>Wonder Woman</t>
-  </si>
-  <si>
     <t>Superman: Our Worlds at War Secret Files and Origins</t>
   </si>
   <si>
@@ -124,6 +124,72 @@
     <t>World's Finest: Our Worlds at War</t>
   </si>
   <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -142,70 +208,7 @@
     <t>The Flash: Our Worlds at War</t>
   </si>
   <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>595</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>782</t>
-  </si>
-  <si>
-    <t>61</t>
+    <t>DC Comics</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -229,18 +232,18 @@
     <t>https://comicvine.gamespot.com/young-justice-our-worlds-at-war-1-comedy-of-eras/4000-114252/</t>
   </si>
   <si>
+    <t>https://comicvine.gamespot.com/issue/4000-53528/</t>
+  </si>
+  <si>
     <t>https://comicvine.gamespot.com/action-comics-780-the-end-of-the-beginning/4000-113398/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-53528/</t>
+    <t>https://comicvine.gamespot.com/wonder-woman-171-bird-of-prey/4000-53562/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/supergirl-59-down-and-out-in-kansas/4000-76600/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/wonder-woman-171-bird-of-prey/4000-53562/</t>
-  </si>
-  <si>
     <t>https://comicvine.gamespot.com/superman-our-worlds-at-war-secret-files-origins-1-/4000-157428/</t>
   </si>
   <si>
@@ -265,12 +268,12 @@
     <t>https://comicvine.gamespot.com/issue/4000-53529/</t>
   </si>
   <si>
+    <t>https://comicvine.gamespot.com/jsa-our-worlds-at-war-1-the-all-stars/4000-189906/</t>
+  </si>
+  <si>
     <t>https://comicvine.gamespot.com/action-comics-781-thousand-yard-stare/4000-114231/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/jsa-our-worlds-at-war-1-the-all-stars/4000-189906/</t>
-  </si>
-  <si>
     <t>https://comicvine.gamespot.com/batman-593-sanctuary-part-one/4000-83261/</t>
   </si>
   <si>
@@ -320,9 +323,6 @@
   </si>
   <si>
     <t>https://comicvine.gamespot.com/worlds-finest-our-worlds-at-war-1-finale/4000-158812/</t>
-  </si>
-  <si>
-    <t>DC Comics</t>
   </si>
 </sst>
 </file>
@@ -755,17 +755,17 @@
       <c r="C2" s="2">
         <v>1987</v>
       </c>
-      <c r="D2" s="2">
-        <v>171</v>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3">
         <v>37134</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2">
         <v>3816</v>
@@ -780,7 +780,7 @@
         <v>1987</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>64</v>
@@ -788,11 +788,11 @@
       <c r="N2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="4">
         <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -805,17 +805,17 @@
       <c r="C3" s="2">
         <v>2001</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3">
         <v>37134</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2">
         <v>30758</v>
@@ -824,25 +824,25 @@
         <v>189899</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K3" s="2">
         <v>2001</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="4">
+        <v>65</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="4">
         <v>0</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -855,17 +855,17 @@
       <c r="C4" s="2">
         <v>1987</v>
       </c>
-      <c r="D4" s="2">
-        <v>593</v>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3">
         <v>37134</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2">
         <v>3778</v>
@@ -880,19 +880,19 @@
         <v>1987</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="4">
+        <v>65</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="4">
         <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -905,17 +905,17 @@
       <c r="C5" s="2">
         <v>2001</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3">
         <v>37134</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2">
         <v>30756</v>
@@ -930,19 +930,19 @@
         <v>2001</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="4">
+        <v>65</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="4">
         <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -955,17 +955,17 @@
       <c r="C6" s="2">
         <v>1991</v>
       </c>
-      <c r="D6" s="2">
-        <v>115</v>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3">
         <v>37134</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2">
         <v>4571</v>
@@ -974,25 +974,25 @@
         <v>70796</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2">
         <v>1991</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="4">
+        <v>65</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="4">
         <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1005,17 +1005,17 @@
       <c r="C7" s="2">
         <v>2001</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3">
         <v>37134</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2">
         <v>19122</v>
@@ -1030,19 +1030,19 @@
         <v>2001</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="4">
+        <v>-23</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1053,46 +1053,46 @@
         <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>1938</v>
-      </c>
-      <c r="D8" s="2">
-        <v>780</v>
+        <v>1994</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3">
-        <v>37134</v>
+        <v>37111</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2">
-        <v>18005</v>
+        <v>5261</v>
       </c>
       <c r="I8" s="2">
-        <v>113398</v>
+        <v>53528</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="2">
-        <v>1938</v>
+        <v>1994</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O8" s="4">
+        <v>65</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="4">
         <v>23</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1103,46 +1103,46 @@
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>1994</v>
-      </c>
-      <c r="D9" s="2">
-        <v>89</v>
+        <v>1938</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3">
-        <v>37111</v>
+        <v>37134</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2">
-        <v>5261</v>
+        <v>18005</v>
       </c>
       <c r="I9" s="2">
-        <v>53528</v>
+        <v>113398</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="2">
-        <v>1994</v>
+        <v>1938</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" s="4">
-        <v>23</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="4">
+        <v>-7</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1153,46 +1153,46 @@
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>1996</v>
-      </c>
-      <c r="D10" s="2">
-        <v>59</v>
+        <v>1987</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3">
-        <v>37134</v>
+        <v>37127</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2">
-        <v>5766</v>
+        <v>3824</v>
       </c>
       <c r="I10" s="2">
-        <v>76600</v>
+        <v>53562</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="2">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="4">
+        <v>65</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="4">
         <v>7</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1203,31 +1203,31 @@
         <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>1987</v>
-      </c>
-      <c r="D11" s="2">
-        <v>171</v>
+        <v>1996</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3">
-        <v>37127</v>
+        <v>37134</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2">
-        <v>3824</v>
+        <v>5766</v>
       </c>
       <c r="I11" s="2">
-        <v>53562</v>
+        <v>76600</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="2">
-        <v>1987</v>
+        <v>1996</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>42</v>
@@ -1236,13 +1236,13 @@
         <v>64</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="4">
-        <v>7</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1255,17 +1255,17 @@
       <c r="C12" s="2">
         <v>2001</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3">
         <v>37134</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2">
         <v>26406</v>
@@ -1274,25 +1274,25 @@
         <v>157428</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="K12" s="2">
         <v>2001</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="4">
+        <v>65</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="4">
         <v>30</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1305,17 +1305,17 @@
       <c r="C13" s="2">
         <v>1987</v>
       </c>
-      <c r="D13" s="2">
-        <v>172</v>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3">
         <v>37164</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2">
         <v>3816</v>
@@ -1330,19 +1330,19 @@
         <v>1987</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" s="4">
-        <v>28</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="4">
+        <v>-28</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1355,17 +1355,17 @@
       <c r="C14" s="2">
         <v>2001</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3">
         <v>37136</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H14" s="2">
         <v>30755</v>
@@ -1380,19 +1380,19 @@
         <v>2001</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" s="4">
+        <v>65</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="4">
         <v>1</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1405,17 +1405,17 @@
       <c r="C15" s="2">
         <v>1998</v>
       </c>
-      <c r="D15" s="2">
-        <v>35</v>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3">
         <v>37137</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2">
         <v>9420</v>
@@ -1430,19 +1430,19 @@
         <v>1998</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O15" s="4">
+        <v>65</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="4">
         <v>27</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1455,17 +1455,17 @@
       <c r="C16" s="2">
         <v>1987</v>
       </c>
-      <c r="D16" s="2">
-        <v>594</v>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3">
         <v>37164</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H16" s="2">
         <v>3778</v>
@@ -1480,19 +1480,19 @@
         <v>1987</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" s="4">
+        <v>65</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="4">
         <v>0</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1505,17 +1505,17 @@
       <c r="C17" s="2">
         <v>2001</v>
       </c>
-      <c r="D17" s="2">
-        <v>1</v>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3">
         <v>37164</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2">
         <v>30760</v>
@@ -1530,19 +1530,19 @@
         <v>2001</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O17" s="4">
+        <v>65</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="4">
         <v>0</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1555,17 +1555,17 @@
       <c r="C18" s="2">
         <v>1991</v>
       </c>
-      <c r="D18" s="2">
-        <v>116</v>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3">
         <v>37164</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H18" s="2">
         <v>4571</v>
@@ -1574,25 +1574,25 @@
         <v>70797</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K18" s="2">
         <v>1991</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" s="4">
-        <v>24</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="4">
+        <v>-24</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1600,22 +1600,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>1994</v>
       </c>
-      <c r="D19" s="2">
-        <v>90</v>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3">
         <v>37140</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H19" s="2">
         <v>5261</v>
@@ -1624,25 +1624,25 @@
         <v>53529</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="2">
         <v>1994</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" s="4">
+        <v>65</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="4">
         <v>24</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1650,49 +1650,49 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2">
-        <v>1938</v>
-      </c>
-      <c r="D20" s="2">
-        <v>781</v>
+        <v>2001</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3">
         <v>37164</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="2">
+        <v>30759</v>
+      </c>
+      <c r="I20" s="2">
+        <v>189906</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2001</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="2">
-        <v>18005</v>
-      </c>
-      <c r="I20" s="2">
-        <v>114231</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1938</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="M20" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O20" s="4">
+        <v>65</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" s="4">
         <v>0</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1700,49 +1700,49 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>2001</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
+        <v>1938</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3">
         <v>37164</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2">
-        <v>30759</v>
+        <v>18005</v>
       </c>
       <c r="I21" s="2">
-        <v>189906</v>
+        <v>114231</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K21" s="2">
-        <v>2001</v>
+        <v>1938</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O21" s="4">
-        <v>29</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="4">
+        <v>-29</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1755,17 +1755,17 @@
       <c r="C22" s="2">
         <v>1940</v>
       </c>
-      <c r="D22" s="2">
-        <v>593</v>
+      <c r="D22" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3">
         <v>37135</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H22" s="2">
         <v>796</v>
@@ -1780,19 +1780,19 @@
         <v>1940</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O22" s="4">
+        <v>65</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" s="4">
         <v>29</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1800,22 +1800,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>1996</v>
       </c>
-      <c r="D23" s="2">
-        <v>60</v>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3">
         <v>37164</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H23" s="2">
         <v>5766</v>
@@ -1824,25 +1824,25 @@
         <v>76601</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K23" s="2">
         <v>1996</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O23" s="4">
-        <v>7</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" s="4">
+        <v>-7</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1850,22 +1850,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
         <v>1987</v>
       </c>
-      <c r="D24" s="2">
-        <v>172</v>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F24" s="3">
         <v>37157</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H24" s="2">
         <v>3824</v>
@@ -1874,25 +1874,25 @@
         <v>53563</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" s="2">
         <v>1987</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O24" s="4">
+        <v>65</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" s="4">
         <v>7</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1905,17 +1905,17 @@
       <c r="C25" s="2">
         <v>2001</v>
       </c>
-      <c r="D25" s="2">
-        <v>1</v>
+      <c r="D25" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3">
         <v>37164</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H25" s="2">
         <v>25374</v>
@@ -1930,19 +1930,19 @@
         <v>2001</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O25" s="4">
+        <v>65</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="4">
         <v>31</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1955,17 +1955,17 @@
       <c r="C26" s="2">
         <v>1987</v>
       </c>
-      <c r="D26" s="2">
-        <v>173</v>
+      <c r="D26" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F26" s="3">
         <v>37195</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H26" s="2">
         <v>3816</v>
@@ -1980,19 +1980,19 @@
         <v>1987</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" s="4">
-        <v>29</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" s="4">
+        <v>-29</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2005,17 +2005,17 @@
       <c r="C27" s="2">
         <v>1998</v>
       </c>
-      <c r="D27" s="2">
-        <v>36</v>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F27" s="3">
         <v>37166</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H27" s="2">
         <v>9420</v>
@@ -2030,19 +2030,19 @@
         <v>1998</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O27" s="4">
+        <v>65</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" s="4">
         <v>29</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2055,17 +2055,17 @@
       <c r="C28" s="2">
         <v>1987</v>
       </c>
-      <c r="D28" s="2">
-        <v>595</v>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F28" s="3">
         <v>37195</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H28" s="2">
         <v>3778</v>
@@ -2080,19 +2080,19 @@
         <v>1987</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O28" s="4">
+        <v>65</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P28" s="4">
         <v>0</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2105,17 +2105,17 @@
       <c r="C29" s="2">
         <v>2001</v>
       </c>
-      <c r="D29" s="2">
-        <v>1</v>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F29" s="3">
         <v>37195</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H29" s="2">
         <v>30757</v>
@@ -2124,25 +2124,25 @@
         <v>189894</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="K29" s="2">
         <v>2001</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O29" s="4">
-        <v>27</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" s="4">
+        <v>-27</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2155,17 +2155,17 @@
       <c r="C30" s="2">
         <v>1995</v>
       </c>
-      <c r="D30" s="2">
-        <v>77</v>
+      <c r="D30" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F30" s="3">
         <v>37168</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H30" s="2">
         <v>5509</v>
@@ -2180,19 +2180,19 @@
         <v>1995</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O30" s="4">
+        <v>65</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P30" s="4">
         <v>27</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2205,17 +2205,17 @@
       <c r="C31" s="2">
         <v>1991</v>
       </c>
-      <c r="D31" s="2">
-        <v>117</v>
+      <c r="D31" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F31" s="3">
         <v>37195</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H31" s="2">
         <v>4571</v>
@@ -2224,25 +2224,25 @@
         <v>89236</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K31" s="2">
         <v>1991</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O31" s="4">
-        <v>21</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P31" s="4">
+        <v>-21</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2255,17 +2255,17 @@
       <c r="C32" s="2">
         <v>2001</v>
       </c>
-      <c r="D32" s="2">
-        <v>1</v>
+      <c r="D32" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F32" s="3">
         <v>37174</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H32" s="2">
         <v>27784</v>
@@ -2280,19 +2280,19 @@
         <v>2001</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O32" s="4">
-        <v>2</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P32" s="4">
+        <v>-2</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2300,22 +2300,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2">
         <v>1994</v>
       </c>
-      <c r="D33" s="2">
-        <v>91</v>
+      <c r="D33" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F33" s="3">
         <v>37172</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H33" s="2">
         <v>5261</v>
@@ -2324,25 +2324,25 @@
         <v>116699</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K33" s="2">
         <v>1994</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O33" s="4">
+        <v>65</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" s="4">
         <v>3</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2350,22 +2350,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2">
         <v>1938</v>
       </c>
-      <c r="D34" s="2">
-        <v>782</v>
+      <c r="D34" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F34" s="3">
         <v>37175</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H34" s="2">
         <v>18005</v>
@@ -2374,25 +2374,25 @@
         <v>114187</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K34" s="2">
         <v>1938</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O34" s="4">
+        <v>65</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="4">
         <v>0</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2400,22 +2400,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="2">
         <v>1987</v>
       </c>
-      <c r="D35" s="2">
-        <v>173</v>
+      <c r="D35" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F35" s="3">
         <v>37175</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H35" s="2">
         <v>3824</v>
@@ -2424,25 +2424,25 @@
         <v>53564</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K35" s="2">
         <v>1987</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O35" s="4">
+        <v>65</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P35" s="4">
         <v>20</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2450,22 +2450,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" s="2">
         <v>1996</v>
       </c>
-      <c r="D36" s="2">
-        <v>61</v>
+      <c r="D36" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F36" s="3">
         <v>37195</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H36" s="2">
         <v>5766</v>
@@ -2474,25 +2474,25 @@
         <v>80611</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K36" s="2">
         <v>1996</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O36" s="4">
-        <v>30</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36" s="4">
+        <v>-30</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2505,17 +2505,17 @@
       <c r="C37" s="2">
         <v>1940</v>
       </c>
-      <c r="D37" s="2">
-        <v>594</v>
+      <c r="D37" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F37" s="3">
         <v>37165</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H37" s="2">
         <v>796</v>
@@ -2530,19 +2530,19 @@
         <v>1940</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O37" s="4">
+        <v>65</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P37" s="4">
         <v>14</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2555,17 +2555,17 @@
       <c r="C38" s="2">
         <v>2001</v>
       </c>
-      <c r="D38" s="2">
-        <v>1</v>
+      <c r="D38" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F38" s="3">
         <v>37179</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H38" s="2">
         <v>26553</v>
@@ -2580,60 +2580,60 @@
         <v>2001</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O38" s="4">
+        <v>65</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P38" s="4">
         <v>0</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N6" r:id="rId5"/>
-    <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="N9" r:id="rId8"/>
-    <hyperlink ref="N10" r:id="rId9"/>
-    <hyperlink ref="N11" r:id="rId10"/>
-    <hyperlink ref="N12" r:id="rId11"/>
-    <hyperlink ref="N13" r:id="rId12"/>
-    <hyperlink ref="N14" r:id="rId13"/>
-    <hyperlink ref="N15" r:id="rId14"/>
-    <hyperlink ref="N16" r:id="rId15"/>
-    <hyperlink ref="N17" r:id="rId16"/>
-    <hyperlink ref="N18" r:id="rId17"/>
-    <hyperlink ref="N19" r:id="rId18"/>
-    <hyperlink ref="N20" r:id="rId19"/>
-    <hyperlink ref="N21" r:id="rId20"/>
-    <hyperlink ref="N22" r:id="rId21"/>
-    <hyperlink ref="N23" r:id="rId22"/>
-    <hyperlink ref="N24" r:id="rId23"/>
-    <hyperlink ref="N25" r:id="rId24"/>
-    <hyperlink ref="N26" r:id="rId25"/>
-    <hyperlink ref="N27" r:id="rId26"/>
-    <hyperlink ref="N28" r:id="rId27"/>
-    <hyperlink ref="N29" r:id="rId28"/>
-    <hyperlink ref="N30" r:id="rId29"/>
-    <hyperlink ref="N31" r:id="rId30"/>
-    <hyperlink ref="N32" r:id="rId31"/>
-    <hyperlink ref="N33" r:id="rId32"/>
-    <hyperlink ref="N34" r:id="rId33"/>
-    <hyperlink ref="N35" r:id="rId34"/>
-    <hyperlink ref="N36" r:id="rId35"/>
-    <hyperlink ref="N37" r:id="rId36"/>
-    <hyperlink ref="N38" r:id="rId37"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O10" r:id="rId9"/>
+    <hyperlink ref="O11" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
+    <hyperlink ref="O13" r:id="rId12"/>
+    <hyperlink ref="O14" r:id="rId13"/>
+    <hyperlink ref="O15" r:id="rId14"/>
+    <hyperlink ref="O16" r:id="rId15"/>
+    <hyperlink ref="O17" r:id="rId16"/>
+    <hyperlink ref="O18" r:id="rId17"/>
+    <hyperlink ref="O19" r:id="rId18"/>
+    <hyperlink ref="O20" r:id="rId19"/>
+    <hyperlink ref="O21" r:id="rId20"/>
+    <hyperlink ref="O22" r:id="rId21"/>
+    <hyperlink ref="O23" r:id="rId22"/>
+    <hyperlink ref="O24" r:id="rId23"/>
+    <hyperlink ref="O25" r:id="rId24"/>
+    <hyperlink ref="O26" r:id="rId25"/>
+    <hyperlink ref="O27" r:id="rId26"/>
+    <hyperlink ref="O28" r:id="rId27"/>
+    <hyperlink ref="O29" r:id="rId28"/>
+    <hyperlink ref="O30" r:id="rId29"/>
+    <hyperlink ref="O31" r:id="rId30"/>
+    <hyperlink ref="O32" r:id="rId31"/>
+    <hyperlink ref="O33" r:id="rId32"/>
+    <hyperlink ref="O34" r:id="rId33"/>
+    <hyperlink ref="O35" r:id="rId34"/>
+    <hyperlink ref="O36" r:id="rId35"/>
+    <hyperlink ref="O37" r:id="rId36"/>
+    <hyperlink ref="O38" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
